--- a/usecase_diagram & usecase_description/use_case_description_김규철.xlsx
+++ b/usecase_diagram & usecase_description/use_case_description_김규철.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrite/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93b1e4194ffc0e6e/바탕 화면/과제/소공/과제2/RecruitSystem/usecase_diagram ^0 usecase_description/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A72C9A25-6AB7-0D46-9E3D-6F245D514F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{A72C9A25-6AB7-0D46-9E3D-6F245D514F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54118871-3350-4A8A-9135-26225FCB7F7C}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="740" windowWidth="28300" windowHeight="17260" xr2:uid="{414CD26A-CBE8-9643-B9AC-56B20F3B1CFD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{414CD26A-CBE8-9643-B9AC-56B20F3B1CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>[회사 이름으로 검색]</t>
   </si>
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +167,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,21 +473,21 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="80.28515625" customWidth="1"/>
-    <col min="2" max="2" width="99.140625" customWidth="1"/>
+    <col min="1" max="1" width="80.26953125" customWidth="1"/>
+    <col min="2" max="2" width="99.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -491,7 +495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -499,22 +503,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -522,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -530,12 +534,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -543,7 +547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -551,22 +555,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -574,7 +576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -582,15 +584,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>

--- a/usecase_diagram & usecase_description/use_case_description_김규철.xlsx
+++ b/usecase_diagram & usecase_description/use_case_description_김규철.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93b1e4194ffc0e6e/바탕 화면/과제/소공/과제2/RecruitSystem/usecase_diagram ^0 usecase_description/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{A72C9A25-6AB7-0D46-9E3D-6F245D514F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54118871-3350-4A8A-9135-26225FCB7F7C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A72C9A25-6AB7-0D46-9E3D-6F245D514F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{793FC419-0871-4589-AFFC-2ADDC83081A7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{414CD26A-CBE8-9643-B9AC-56B20F3B1CFD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>[회사 이름으로 검색]</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>2. 채용의 상세한 정보(회사이름, 직책, 업무, 인원수, 신청 마감일)를 출력한다.</t>
-  </si>
-  <si>
-    <t>2번 후, 일반 회원이 원할 시 유사한 채용 정보 추천 기능을 켜고 확인할 수 있음</t>
   </si>
   <si>
     <t>[지원]</t>
@@ -473,7 +470,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -559,13 +556,11 @@
       <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -578,10 +573,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
